--- a/biology/Zoologie/Amatitlania/Amatitlania.xlsx
+++ b/biology/Zoologie/Amatitlania/Amatitlania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amatitlania est un genre de poissons d'eau douce de la famille des Cichlidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Amatitlania se rencontrent en Amérique centrale.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (21 décembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 décembre 2023) :
 Amatitlania altoflava (Allgayer, 2001)
 Amatitlania coatepeque Schmitter-Soto, 2007
 Amatitlania kanna Schmitter-Soto, 2007
@@ -581,9 +597,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amatitlania Schmitter-Soto (d), 2007[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amatitlania Schmitter-Soto (d), 2007.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) J. J. Schmitter-Soto, « A systematic revision of the genus Archocentrus (Perciformes: Cichlidae), with the description of two new genera and six new species », Zootaxa, Nouvelle-Zélande, no 1603,‎ septembre 2007, p. 1-78 (ISSN 1175-5326, e-ISSN 1175-5334, DOI 10.15468/OFI32S).</t>
         </is>
